--- a/美赛历年题目模型总结1.13.xlsx
+++ b/美赛历年题目模型总结1.13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\MCM-ICM-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88249EAF-5E00-4933-9693-650682F35531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6EEED0-6CBD-46D3-80A7-8008D9975A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{A90F533B-C60B-43C8-AE09-32971E642AF8}"/>
   </bookViews>
@@ -1076,11 +1076,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,6 +1137,50 @@
         <a:xfrm>
           <a:off x="15398750" y="63500"/>
           <a:ext cx="8968586" cy="4285615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>92112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398F3697-DA79-8E6F-99B5-897DC4189A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15557500" y="4445000"/>
+          <a:ext cx="8528050" cy="5603912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,7 +1542,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1521,7 +1565,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1542,7 +1586,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1607,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="46" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1628,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="46" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1649,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1626,7 +1670,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1689,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1702,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1681,7 +1725,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
@@ -1702,7 +1746,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>98</v>
       </c>
@@ -1723,7 +1767,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="46" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>99</v>
       </c>
@@ -1744,7 +1788,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="23" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>100</v>
       </c>
@@ -1765,7 +1809,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="23" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>101</v>
       </c>
@@ -1784,7 +1828,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="23" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>102</v>
       </c>
@@ -1799,7 +1843,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="46" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>103</v>
       </c>
@@ -1814,7 +1858,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>2021</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1837,7 +1881,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1858,7 +1902,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>127</v>
       </c>
@@ -1879,7 +1923,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
         <v>128</v>
       </c>
@@ -1900,7 +1944,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
         <v>129</v>
       </c>
@@ -1921,7 +1965,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="46" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>130</v>
       </c>
@@ -1942,7 +1986,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
         <v>131</v>
       </c>
@@ -1959,7 +2003,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
         <v>132</v>
       </c>
@@ -1967,7 +2011,7 @@
       <c r="D26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>148</v>
       </c>
       <c r="F26" s="2"/>
@@ -1976,7 +2020,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1989,7 +2033,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="23" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2000,7 +2044,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>2020</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2023,7 +2067,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
@@ -2044,7 +2088,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="80.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="2" t="s">
         <v>162</v>
       </c>
@@ -2065,7 +2109,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="2" t="s">
         <v>163</v>
       </c>
@@ -2086,7 +2130,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="46" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
         <v>164</v>
       </c>
@@ -2107,7 +2151,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
         <v>165</v>
       </c>
@@ -2128,7 +2172,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="46" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="2" t="s">
         <v>166</v>
       </c>
@@ -2145,7 +2189,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="23" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
+      <c r="A36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
         <v>182</v>
@@ -2155,7 +2199,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
@@ -2166,7 +2210,7 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1" t="s">
         <v>86</v>
       </c>
@@ -2187,7 +2231,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
         <v>93</v>
       </c>
@@ -2208,7 +2252,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <v>2019</v>
       </c>
       <c r="B40" s="2"/>
@@ -2219,7 +2263,7 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2228,7 +2272,7 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2237,7 +2281,7 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2246,7 +2290,7 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2255,7 +2299,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2280,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94777CFC-30B3-411B-A477-F87FAAE21EFC}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="H21" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/美赛历年题目模型总结1.13.xlsx
+++ b/美赛历年题目模型总结1.13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\MCM-ICM-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6EEED0-6CBD-46D3-80A7-8008D9975A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F2150-B718-4B63-9D74-3ED17F9B2B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{A90F533B-C60B-43C8-AE09-32971E642AF8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="287">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1103,16 +1103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>224636</xdr:colOff>
+      <xdr:colOff>383386</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1135,7 +1135,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15398750" y="63500"/>
+          <a:off x="15557500" y="0"/>
           <a:ext cx="8968586" cy="4285615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1148,15 +1148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>92112</xdr:rowOff>
+      <xdr:rowOff>130212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1179,7 +1179,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15557500" y="4445000"/>
+          <a:off x="15779750" y="4483100"/>
           <a:ext cx="8528050" cy="5603912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2322,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94777CFC-30B3-411B-A477-F87FAAE21EFC}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H21" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2336,6 +2336,7 @@
     <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2381,7 +2382,7 @@
       <c r="G2" t="s">
         <v>275</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>197</v>
       </c>
       <c r="K2" t="s">
@@ -2410,7 +2411,7 @@
       <c r="G3" t="s">
         <v>276</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>202</v>
       </c>
       <c r="K3" t="s">
@@ -2436,7 +2437,7 @@
       <c r="G4" t="s">
         <v>263</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>207</v>
       </c>
       <c r="K4" t="s">
@@ -2453,6 +2454,9 @@
       <c r="G5" t="s">
         <v>277</v>
       </c>
+      <c r="I5" t="s">
+        <v>240</v>
+      </c>
       <c r="K5" t="s">
         <v>212</v>
       </c>
@@ -2461,6 +2465,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>242</v>
+      </c>
       <c r="J6" t="s">
         <v>213</v>
       </c>
@@ -2493,6 +2500,9 @@
       <c r="G7" t="s">
         <v>214</v>
       </c>
+      <c r="I7" t="s">
+        <v>248</v>
+      </c>
       <c r="J7" t="s">
         <v>216</v>
       </c>
@@ -2516,6 +2526,9 @@
       <c r="F8" t="s">
         <v>238</v>
       </c>
+      <c r="I8" t="s">
+        <v>250</v>
+      </c>
       <c r="J8" t="s">
         <v>217</v>
       </c>
@@ -2533,11 +2546,11 @@
       <c r="F9" t="s">
         <v>266</v>
       </c>
+      <c r="I9" t="s">
+        <v>251</v>
+      </c>
       <c r="J9" t="s">
         <v>219</v>
-      </c>
-      <c r="K9" t="s">
-        <v>229</v>
       </c>
       <c r="M9" t="s">
         <v>236</v>
@@ -2547,6 +2560,9 @@
       <c r="F10" t="s">
         <v>267</v>
       </c>
+      <c r="I10" t="s">
+        <v>253</v>
+      </c>
       <c r="J10" t="s">
         <v>220</v>
       </c>
@@ -2555,6 +2571,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>262</v>
+      </c>
       <c r="J11" t="s">
         <v>226</v>
       </c>
@@ -2584,6 +2603,9 @@
       <c r="G12" t="s">
         <v>214</v>
       </c>
+      <c r="I12" t="s">
+        <v>264</v>
+      </c>
       <c r="J12" t="s">
         <v>223</v>
       </c>
@@ -2610,6 +2632,9 @@
       <c r="G13" t="s">
         <v>278</v>
       </c>
+      <c r="I13" t="s">
+        <v>275</v>
+      </c>
       <c r="J13" t="s">
         <v>227</v>
       </c>
@@ -2630,6 +2655,9 @@
       <c r="G14" t="s">
         <v>280</v>
       </c>
+      <c r="I14" t="s">
+        <v>276</v>
+      </c>
       <c r="J14" t="s">
         <v>231</v>
       </c>
@@ -2650,6 +2678,9 @@
       <c r="G15" t="s">
         <v>279</v>
       </c>
+      <c r="I15" t="s">
+        <v>278</v>
+      </c>
       <c r="J15" t="s">
         <v>232</v>
       </c>
@@ -2661,11 +2692,14 @@
       <c r="D16" t="s">
         <v>227</v>
       </c>
-      <c r="J16" t="s">
-        <v>234</v>
+      <c r="I16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>281</v>
+      </c>
       <c r="J17" t="s">
         <v>233</v>
       </c>
@@ -2749,17 +2783,11 @@
       <c r="G21" t="s">
         <v>283</v>
       </c>
-      <c r="J21" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>216</v>
       </c>
-      <c r="J22" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
@@ -2839,9 +2867,6 @@
       <c r="D27" t="s">
         <v>244</v>
       </c>
-      <c r="J27" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
@@ -2875,9 +2900,6 @@
       <c r="G30" t="s">
         <v>278</v>
       </c>
-      <c r="J30" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -2895,9 +2917,6 @@
       <c r="G31" t="s">
         <v>215</v>
       </c>
-      <c r="J31" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
@@ -2909,9 +2928,6 @@
       <c r="G32" t="s">
         <v>245</v>
       </c>
-      <c r="J32" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
@@ -2931,39 +2947,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="J36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="J37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="J38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="J39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="J40" t="s">
-        <v>278</v>
-      </c>
-    </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.3">
       <c r="J41" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="J42" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/美赛历年题目模型总结1.13.xlsx
+++ b/美赛历年题目模型总结1.13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\MCM-ICM-Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\美赛\MCM-ICM-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F2150-B718-4B63-9D74-3ED17F9B2B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57733F03-0C4A-4F80-86A2-972AE4E3E2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{A90F533B-C60B-43C8-AE09-32971E642AF8}"/>
   </bookViews>
@@ -2324,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94777CFC-30B3-411B-A477-F87FAAE21EFC}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
